--- a/public/Plantillas/Reporte-MatrizVinculacion.xlsx
+++ b/public/Plantillas/Reporte-MatrizVinculacion.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C1575A-2E9A-4A6E-91CA-85FA0102E537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E023EABC-39E7-44E1-91D6-CD22AA2F1D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="540" windowWidth="20730" windowHeight="11040" xr2:uid="{BA0A86E9-0812-4831-9BB8-61CEB0D52C2A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA0A86E9-0812-4831-9BB8-61CEB0D52C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$8:$N$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Nomnbres</t>
   </si>
@@ -67,9 +70,6 @@
   </si>
   <si>
     <t>Fecha Inicio</t>
-  </si>
-  <si>
-    <t>Horas realizadas</t>
   </si>
   <si>
     <t>Nota</t>
@@ -103,16 +103,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,18 +162,18 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -201,10 +202,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>891540</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1424940</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1428750" cy="476250"/>
     <xdr:pic>
@@ -228,7 +229,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="891540" y="274320"/>
+          <a:off x="8077200" y="251460"/>
           <a:ext cx="1428750" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -240,10 +241,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1303020</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="571500" cy="571500"/>
     <xdr:pic>
@@ -267,7 +268,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28453080" y="220980"/>
+          <a:off x="17091660" y="304800"/>
           <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -577,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D8BC6F-F653-4F8F-B96E-D91D7F594A13}">
-  <dimension ref="A3:O9"/>
+  <dimension ref="A3:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,133 +592,126 @@
     <col min="4" max="4" width="24.21875" customWidth="1"/>
     <col min="5" max="5" width="24.109375" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="37.6640625" customWidth="1"/>
-    <col min="10" max="10" width="40.44140625" customWidth="1"/>
-    <col min="11" max="11" width="36.6640625" customWidth="1"/>
-    <col min="12" max="12" width="32.21875" customWidth="1"/>
-    <col min="13" max="13" width="25.77734375" customWidth="1"/>
-    <col min="14" max="14" width="13.77734375" customWidth="1"/>
-    <col min="15" max="15" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="37.6640625" customWidth="1"/>
+    <col min="9" max="9" width="40.44140625" customWidth="1"/>
+    <col min="10" max="10" width="36.6640625" customWidth="1"/>
+    <col min="11" max="11" width="32.21875" customWidth="1"/>
+    <col min="12" max="12" width="25.77734375" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="C3" s="2"/>
-      <c r="D3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="2"/>
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="C3" s="1"/>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A8:N8" xr:uid="{A0D8BC6F-F653-4F8F-B96E-D91D7F594A13}"/>
   <mergeCells count="3">
-    <mergeCell ref="A7:O7"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="C4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/public/Plantillas/Reporte-MatrizVinculacion.xlsx
+++ b/public/Plantillas/Reporte-MatrizVinculacion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E023EABC-39E7-44E1-91D6-CD22AA2F1D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E3E94C-C0E8-4472-9269-E9AE08BB9BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA0A86E9-0812-4831-9BB8-61CEB0D52C2A}"/>
   </bookViews>
@@ -84,10 +84,10 @@
     <t>Reporte de Vinculacion con la sociedad</t>
   </si>
   <si>
-    <t>CARRERA DE INGENIERÍA EN TECNOLOGÍAS DE LA INFORMACIÓN</t>
-  </si>
-  <si>
     <t xml:space="preserve">                              UNIVERSIDAD DE LAS FUERZAS ARMADAS - ESPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 CARRERA DE TECNOLOGÍAS DE LA INFORMACIÓN</t>
   </si>
 </sst>
 </file>
@@ -163,17 +163,17 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -231,45 +231,6 @@
         <a:xfrm>
           <a:off x="8077200" y="251460"/>
           <a:ext cx="1428750" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1303020</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="571500" cy="571500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F6442D-B2F9-4034-8E33-A46ECA92E736}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17091660" y="304800"/>
-          <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -580,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D8BC6F-F653-4F8F-B96E-D91D7F594A13}">
   <dimension ref="A3:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,107 +565,107 @@
   <sheetData>
     <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="C3" s="1"/>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:N8" xr:uid="{A0D8BC6F-F653-4F8F-B96E-D91D7F594A13}"/>

--- a/public/Plantillas/Reporte-MatrizVinculacion.xlsx
+++ b/public/Plantillas/Reporte-MatrizVinculacion.xlsx
@@ -1,93 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tesis\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E3E94C-C0E8-4472-9269-E9AE08BB9BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A1D603-A6FE-450B-90D6-6B23FD23741F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA0A86E9-0812-4831-9BB8-61CEB0D52C2A}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{BA0A86E9-0812-4831-9BB8-61CEB0D52C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$8:$N$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$8:$O$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Nomnbres</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ESPE ID</t>
   </si>
   <si>
-    <t>Cedula</t>
-  </si>
-  <si>
-    <t>Correo</t>
-  </si>
-  <si>
-    <t>Promocion</t>
-  </si>
-  <si>
-    <t>Periodo de vincuclacion</t>
-  </si>
-  <si>
-    <t>Nombre del proyecto</t>
-  </si>
-  <si>
-    <t>Actividades Macro</t>
-  </si>
-  <si>
-    <t>Director del proyecto</t>
-  </si>
-  <si>
-    <t>Docente Participante</t>
-  </si>
-  <si>
-    <t>Fecha Inicio</t>
-  </si>
-  <si>
-    <t>Nota</t>
-  </si>
-  <si>
-    <t>Fecha Fin</t>
-  </si>
-  <si>
-    <t>Departamento</t>
-  </si>
-  <si>
-    <t>Reporte de Vinculacion con la sociedad</t>
-  </si>
-  <si>
     <t xml:space="preserve">                              UNIVERSIDAD DE LAS FUERZAS ARMADAS - ESPE</t>
   </si>
   <si>
     <t xml:space="preserve">                 CARRERA DE TECNOLOGÍAS DE LA INFORMACIÓN</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>ESTUDIANTE</t>
+  </si>
+  <si>
+    <t>CÉDULA</t>
+  </si>
+  <si>
+    <t>CORREO</t>
+  </si>
+  <si>
+    <t>PROMOCIÓN</t>
+  </si>
+  <si>
+    <t>PERIODO DE VINCULACIÓN</t>
+  </si>
+  <si>
+    <t>NOTA</t>
+  </si>
+  <si>
+    <t>NOMBRE DE PROYECTO</t>
+  </si>
+  <si>
+    <t>ACTIVIDADES MACRO</t>
+  </si>
+  <si>
+    <t>DIRECTOR DEL PROYECTO</t>
+  </si>
+  <si>
+    <t>DOCENTE PARTICIPANTE</t>
+  </si>
+  <si>
+    <t>FECHA INICIO</t>
+  </si>
+  <si>
+    <t>FECHA FIN</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>REPORTE DE VINCULACIÓN A LA SOCIEDAD</t>
   </si>
 </sst>
 </file>
@@ -133,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -156,11 +150,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -169,11 +172,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -202,7 +212,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1424940</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
@@ -539,120 +549,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D8BC6F-F653-4F8F-B96E-D91D7F594A13}">
-  <dimension ref="A3:N9"/>
+  <dimension ref="A3:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.21875" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" customWidth="1"/>
-    <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="37.6640625" customWidth="1"/>
-    <col min="9" max="9" width="40.44140625" customWidth="1"/>
-    <col min="10" max="10" width="36.6640625" customWidth="1"/>
-    <col min="11" max="11" width="32.21875" customWidth="1"/>
-    <col min="12" max="12" width="25.77734375" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" customWidth="1"/>
-    <col min="14" max="14" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="37.7109375" customWidth="1"/>
+    <col min="10" max="10" width="40.42578125" customWidth="1"/>
+    <col min="11" max="11" width="36.7109375" customWidth="1"/>
+    <col min="12" max="12" width="32.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="C3" s="1"/>
-      <c r="D3" s="5" t="s">
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D3" s="1"/>
+      <c r="E3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="1"/>
+      <c r="O8" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -666,13 +680,14 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:N8" xr:uid="{A0D8BC6F-F653-4F8F-B96E-D91D7F594A13}"/>
+  <autoFilter ref="B8:O8" xr:uid="{A0D8BC6F-F653-4F8F-B96E-D91D7F594A13}"/>
   <mergeCells count="3">
-    <mergeCell ref="A7:N7"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A7:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/public/Plantillas/Reporte-MatrizVinculacion.xlsx
+++ b/public/Plantillas/Reporte-MatrizVinculacion.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tesis\Tesis_Final_Version\public\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A1D603-A6FE-450B-90D6-6B23FD23741F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7367762E-DD00-46EE-8D1B-012EAD35086B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{BA0A86E9-0812-4831-9BB8-61CEB0D52C2A}"/>
+    <workbookView xWindow="-20610" yWindow="540" windowWidth="20730" windowHeight="11040" xr2:uid="{BA0A86E9-0812-4831-9BB8-61CEB0D52C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$8:$O$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$8:$P$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ESPE ID</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>REPORTE DE VINCULACIÓN A LA SOCIEDAD</t>
+  </si>
+  <si>
+    <t>Horas Realizadas</t>
   </si>
 </sst>
 </file>
@@ -172,18 +175,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,77 +552,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D8BC6F-F653-4F8F-B96E-D91D7F594A13}">
-  <dimension ref="A3:O9"/>
+  <dimension ref="A3:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="37.7109375" customWidth="1"/>
-    <col min="10" max="10" width="40.42578125" customWidth="1"/>
-    <col min="11" max="11" width="36.7109375" customWidth="1"/>
-    <col min="12" max="12" width="32.28515625" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" customWidth="1"/>
+    <col min="3" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="7" max="8" width="33" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="37.6640625" customWidth="1"/>
+    <col min="11" max="11" width="40.44140625" customWidth="1"/>
+    <col min="12" max="12" width="36.6640625" customWidth="1"/>
+    <col min="13" max="13" width="32.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.44140625" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="D3" s="1"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="1"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D4" s="4" t="s">
+    <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -641,32 +647,35 @@
         <v>8</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -681,13 +690,14 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="B8:O8" xr:uid="{A0D8BC6F-F653-4F8F-B96E-D91D7F594A13}"/>
+  <autoFilter ref="B8:P8" xr:uid="{A0D8BC6F-F653-4F8F-B96E-D91D7F594A13}"/>
   <mergeCells count="3">
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="A7:O7"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A7:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/public/Plantillas/Reporte-MatrizVinculacion.xlsx
+++ b/public/Plantillas/Reporte-MatrizVinculacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7367762E-DD00-46EE-8D1B-012EAD35086B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B54765-71D2-44CD-8BDD-6DA84F3374BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="540" windowWidth="20730" windowHeight="11040" xr2:uid="{BA0A86E9-0812-4831-9BB8-61CEB0D52C2A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA0A86E9-0812-4831-9BB8-61CEB0D52C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D8BC6F-F653-4F8F-B96E-D91D7F594A13}">
   <dimension ref="A3:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,9 +565,10 @@
     <col min="3" max="4" width="18.6640625" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" customWidth="1"/>
-    <col min="7" max="8" width="33" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="37.6640625" customWidth="1"/>
+    <col min="10" max="10" width="37.5546875" customWidth="1"/>
     <col min="11" max="11" width="40.44140625" customWidth="1"/>
     <col min="12" max="12" width="36.6640625" customWidth="1"/>
     <col min="13" max="13" width="32.33203125" customWidth="1"/>

--- a/public/Plantillas/Reporte-MatrizVinculacion.xlsx
+++ b/public/Plantillas/Reporte-MatrizVinculacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B54765-71D2-44CD-8BDD-6DA84F3374BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C566B0A-6C11-4E17-B061-365097280327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA0A86E9-0812-4831-9BB8-61CEB0D52C2A}"/>
   </bookViews>
@@ -84,7 +84,7 @@
     <t>REPORTE DE VINCULACIÓN A LA SOCIEDAD</t>
   </si>
   <si>
-    <t>Horas Realizadas</t>
+    <t>HORAS REALIZADAS</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <dimension ref="A3:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/public/Plantillas/Reporte-MatrizVinculacion.xlsx
+++ b/public/Plantillas/Reporte-MatrizVinculacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C566B0A-6C11-4E17-B061-365097280327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D9A3CA-8076-4BC5-BDC3-D5405DA8F17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA0A86E9-0812-4831-9BB8-61CEB0D52C2A}"/>
   </bookViews>
@@ -16,19 +16,28 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$8:$P$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$8:$Y$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>ESPE ID</t>
   </si>
@@ -57,9 +66,6 @@
     <t>PERIODO DE VINCULACIÓN</t>
   </si>
   <si>
-    <t>NOTA</t>
-  </si>
-  <si>
     <t>NOMBRE DE PROYECTO</t>
   </si>
   <si>
@@ -81,10 +87,31 @@
     <t>DEPARTAMENTO</t>
   </si>
   <si>
-    <t>REPORTE DE VINCULACIÓN A LA SOCIEDAD</t>
-  </si>
-  <si>
-    <t>HORAS REALIZADAS</t>
+    <t>NOMBRE DEL PROYECTO</t>
+  </si>
+  <si>
+    <t>NOTA 1</t>
+  </si>
+  <si>
+    <t>HORAS REALIZADAS 1</t>
+  </si>
+  <si>
+    <t>HORA 2</t>
+  </si>
+  <si>
+    <t>NOTA 2</t>
+  </si>
+  <si>
+    <t>PERIODO DE VINCULACION</t>
+  </si>
+  <si>
+    <t>REPORTE DE VINCULACIÓN A LA SOCIEDAD 1</t>
+  </si>
+  <si>
+    <t>REPORTE DE VINCULACIÓN A LA SOCIEDAD 2</t>
+  </si>
+  <si>
+    <t>TOTAL HORAS</t>
   </si>
 </sst>
 </file>
@@ -130,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -162,11 +189,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -186,6 +246,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -552,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D8BC6F-F653-4F8F-B96E-D91D7F594A13}">
-  <dimension ref="A3:P9"/>
+  <dimension ref="A3:Z9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,7 +638,7 @@
     <col min="5" max="5" width="24.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" customWidth="1"/>
     <col min="7" max="7" width="21.77734375" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="37.5546875" customWidth="1"/>
     <col min="11" max="11" width="40.44140625" customWidth="1"/>
@@ -575,9 +647,17 @@
     <col min="14" max="14" width="18.44140625" customWidth="1"/>
     <col min="15" max="15" width="16.33203125" customWidth="1"/>
     <col min="16" max="16" width="16.109375" customWidth="1"/>
+    <col min="17" max="17" width="31.21875" customWidth="1"/>
+    <col min="18" max="18" width="29.33203125" customWidth="1"/>
+    <col min="19" max="19" width="33.5546875" customWidth="1"/>
+    <col min="20" max="20" width="23.33203125" customWidth="1"/>
+    <col min="21" max="21" width="18.21875" customWidth="1"/>
+    <col min="22" max="22" width="20.21875" customWidth="1"/>
+    <col min="23" max="23" width="22.21875" customWidth="1"/>
+    <col min="26" max="26" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="D3" s="1"/>
       <c r="E3" s="6" t="s">
         <v>1</v>
@@ -591,7 +671,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
@@ -605,9 +685,9 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -624,8 +704,20 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="8"/>
+      <c r="Q7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -651,31 +743,61 @@
         <v>18</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="S8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z8" s="9" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -692,13 +814,23 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B8:P8" xr:uid="{A0D8BC6F-F653-4F8F-B96E-D91D7F594A13}"/>
-  <mergeCells count="3">
+  <autoFilter ref="A8:Y8" xr:uid="{A0D8BC6F-F653-4F8F-B96E-D91D7F594A13}"/>
+  <mergeCells count="4">
     <mergeCell ref="E3:L3"/>
     <mergeCell ref="D4:M4"/>
     <mergeCell ref="A7:P7"/>
+    <mergeCell ref="Q7:Z7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/public/Plantillas/Reporte-MatrizVinculacion.xlsx
+++ b/public/Plantillas/Reporte-MatrizVinculacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D9A3CA-8076-4BC5-BDC3-D5405DA8F17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9479B97E-05D0-42A4-A89B-A5F5A0EB65E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA0A86E9-0812-4831-9BB8-61CEB0D52C2A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$8:$Y$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$8:$AA$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>ESPE ID</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>TOTAL HORAS</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
   </si>
 </sst>
 </file>
@@ -226,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -239,6 +242,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -246,15 +255,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -624,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D8BC6F-F653-4F8F-B96E-D91D7F594A13}">
-  <dimension ref="A3:Z9"/>
+  <dimension ref="A3:AB9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,87 +637,93 @@
     <col min="3" max="4" width="18.6640625" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="37.5546875" customWidth="1"/>
-    <col min="11" max="11" width="40.44140625" customWidth="1"/>
-    <col min="12" max="12" width="36.6640625" customWidth="1"/>
-    <col min="13" max="13" width="32.33203125" customWidth="1"/>
-    <col min="14" max="14" width="18.44140625" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" customWidth="1"/>
-    <col min="16" max="16" width="16.109375" customWidth="1"/>
-    <col min="17" max="17" width="31.21875" customWidth="1"/>
-    <col min="18" max="18" width="29.33203125" customWidth="1"/>
-    <col min="19" max="19" width="33.5546875" customWidth="1"/>
-    <col min="20" max="20" width="23.33203125" customWidth="1"/>
-    <col min="21" max="21" width="18.21875" customWidth="1"/>
-    <col min="22" max="22" width="20.21875" customWidth="1"/>
-    <col min="23" max="23" width="22.21875" customWidth="1"/>
-    <col min="26" max="26" width="25.33203125" customWidth="1"/>
+    <col min="7" max="9" width="21.77734375" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="37.5546875" customWidth="1"/>
+    <col min="13" max="13" width="40.44140625" customWidth="1"/>
+    <col min="14" max="14" width="36.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.33203125" customWidth="1"/>
+    <col min="16" max="16" width="18.44140625" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" customWidth="1"/>
+    <col min="18" max="18" width="16.109375" customWidth="1"/>
+    <col min="19" max="19" width="31.21875" customWidth="1"/>
+    <col min="20" max="20" width="29.33203125" customWidth="1"/>
+    <col min="21" max="21" width="33.5546875" customWidth="1"/>
+    <col min="22" max="22" width="23.33203125" customWidth="1"/>
+    <col min="23" max="23" width="18.21875" customWidth="1"/>
+    <col min="24" max="24" width="20.21875" customWidth="1"/>
+    <col min="25" max="25" width="22.21875" customWidth="1"/>
+    <col min="28" max="28" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" ht="18" x14ac:dyDescent="0.35">
       <c r="D3" s="1"/>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="1"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="D4" s="6" t="s">
+    <row r="4" spans="1:28" ht="18" x14ac:dyDescent="0.35">
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="12" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -740,64 +746,70 @@
         <v>8</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="R8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="S8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="T8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="U8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="9" t="s">
+      <c r="V8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="U8" s="9" t="s">
+      <c r="W8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="V8" s="9" t="s">
+      <c r="X8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="W8" s="9" t="s">
+      <c r="Y8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="X8" s="9" t="s">
+      <c r="Z8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Y8" s="9" t="s">
+      <c r="AA8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Z8" s="9" t="s">
+      <c r="AB8" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -815,22 +827,25 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:Y8" xr:uid="{A0D8BC6F-F653-4F8F-B96E-D91D7F594A13}"/>
+  <autoFilter ref="A8:AA8" xr:uid="{A0D8BC6F-F653-4F8F-B96E-D91D7F594A13}"/>
   <mergeCells count="4">
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="A7:P7"/>
-    <mergeCell ref="Q7:Z7"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="S7:AB7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/public/Plantillas/Reporte-MatrizVinculacion.xlsx
+++ b/public/Plantillas/Reporte-MatrizVinculacion.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9479B97E-05D0-42A4-A89B-A5F5A0EB65E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7529E50-12D2-457E-8E6C-153ADF46200A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA0A86E9-0812-4831-9BB8-61CEB0D52C2A}"/>
+    <workbookView xWindow="-20610" yWindow="540" windowWidth="20730" windowHeight="11040" xr2:uid="{BA0A86E9-0812-4831-9BB8-61CEB0D52C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$8:$AA$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$8:$AF$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,17 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>ESPE ID</t>
   </si>
   <si>
-    <t xml:space="preserve">                              UNIVERSIDAD DE LAS FUERZAS ARMADAS - ESPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 CARRERA DE TECNOLOGÍAS DE LA INFORMACIÓN</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -115,6 +110,24 @@
   </si>
   <si>
     <t>CARRERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRC </t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DOCENTE PARTICIPANTE</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DIRECTOR</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO PROYECTO</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE LAS FUERZAS ARMADAS - ESPE</t>
+  </si>
+  <si>
+    <t>CARRERA DE TECNOLOGÍAS DE LA INFORMACIÓN</t>
   </si>
 </sst>
 </file>
@@ -160,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -184,15 +197,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -200,19 +204,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -229,9 +220,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -242,10 +232,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -254,10 +241,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -287,10 +271,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1424940</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2150409</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>103877</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1428750" cy="476250"/>
     <xdr:pic>
@@ -314,7 +298,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8077200" y="251460"/>
+          <a:off x="23396762" y="283171"/>
           <a:ext cx="1428750" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -624,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D8BC6F-F653-4F8F-B96E-D91D7F594A13}">
-  <dimension ref="A3:AB9"/>
+  <dimension ref="A3:AG9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,215 +621,282 @@
     <col min="3" max="4" width="18.6640625" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" customWidth="1"/>
-    <col min="7" max="9" width="21.77734375" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="37.5546875" customWidth="1"/>
-    <col min="13" max="13" width="40.44140625" customWidth="1"/>
-    <col min="14" max="14" width="36.6640625" customWidth="1"/>
-    <col min="15" max="15" width="32.33203125" customWidth="1"/>
-    <col min="16" max="16" width="18.44140625" customWidth="1"/>
-    <col min="17" max="17" width="16.33203125" customWidth="1"/>
-    <col min="18" max="18" width="16.109375" customWidth="1"/>
-    <col min="19" max="19" width="31.21875" customWidth="1"/>
-    <col min="20" max="20" width="29.33203125" customWidth="1"/>
-    <col min="21" max="21" width="33.5546875" customWidth="1"/>
-    <col min="22" max="22" width="23.33203125" customWidth="1"/>
-    <col min="23" max="23" width="18.21875" customWidth="1"/>
-    <col min="24" max="24" width="20.21875" customWidth="1"/>
-    <col min="25" max="25" width="22.21875" customWidth="1"/>
-    <col min="28" max="28" width="25.33203125" customWidth="1"/>
+    <col min="7" max="10" width="21.77734375" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="14" width="37.5546875" customWidth="1"/>
+    <col min="15" max="15" width="40.44140625" customWidth="1"/>
+    <col min="16" max="17" width="36.6640625" customWidth="1"/>
+    <col min="18" max="18" width="32.33203125" customWidth="1"/>
+    <col min="19" max="19" width="40.5546875" customWidth="1"/>
+    <col min="20" max="20" width="18.44140625" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" customWidth="1"/>
+    <col min="22" max="22" width="31.21875" customWidth="1"/>
+    <col min="23" max="24" width="29.33203125" customWidth="1"/>
+    <col min="25" max="26" width="33.5546875" customWidth="1"/>
+    <col min="27" max="27" width="23.33203125" customWidth="1"/>
+    <col min="28" max="28" width="36.88671875" customWidth="1"/>
+    <col min="29" max="29" width="18.21875" customWidth="1"/>
+    <col min="30" max="30" width="20.21875" customWidth="1"/>
+    <col min="33" max="33" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:28" ht="18" x14ac:dyDescent="0.35">
-      <c r="D3" s="1"/>
-      <c r="E3" s="8" t="s">
+    <row r="3" spans="1:33" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+    </row>
+    <row r="4" spans="1:33" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" ht="18" x14ac:dyDescent="0.35">
-      <c r="D4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB8" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:AA8" xr:uid="{A0D8BC6F-F653-4F8F-B96E-D91D7F594A13}"/>
+  <autoFilter ref="A8:AF8" xr:uid="{A0D8BC6F-F653-4F8F-B96E-D91D7F594A13}"/>
   <mergeCells count="4">
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="D4:O4"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="S7:AB7"/>
+    <mergeCell ref="A7:U7"/>
+    <mergeCell ref="V7:AG7"/>
+    <mergeCell ref="A4:AG4"/>
+    <mergeCell ref="A3:AG3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/public/Plantillas/Reporte-MatrizVinculacion.xlsx
+++ b/public/Plantillas/Reporte-MatrizVinculacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7529E50-12D2-457E-8E6C-153ADF46200A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC9FA17-21DE-484B-991C-55FAD05FC791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="540" windowWidth="20730" windowHeight="11040" xr2:uid="{BA0A86E9-0812-4831-9BB8-61CEB0D52C2A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA0A86E9-0812-4831-9BB8-61CEB0D52C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$8:$AF$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>ESPE ID</t>
   </si>
@@ -128,6 +127,9 @@
   </si>
   <si>
     <t>CARRERA DE TECNOLOGÍAS DE LA INFORMACIÓN</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
   </si>
 </sst>
 </file>
@@ -235,13 +237,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -608,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D8BC6F-F653-4F8F-B96E-D91D7F594A13}">
-  <dimension ref="A3:AG9"/>
+  <dimension ref="A3:AH9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB18" sqref="AB18"/>
+      <selection activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,123 +640,127 @@
     <col min="28" max="28" width="36.88671875" customWidth="1"/>
     <col min="29" max="29" width="18.21875" customWidth="1"/>
     <col min="30" max="30" width="20.21875" customWidth="1"/>
-    <col min="33" max="33" width="25.33203125" customWidth="1"/>
+    <col min="33" max="33" width="22.109375" customWidth="1"/>
+    <col min="34" max="34" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:33" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:34" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
     </row>
-    <row r="4" spans="1:33" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:34" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="8" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
@@ -854,8 +860,11 @@
       <c r="AG8" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="AH8" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -889,14 +898,15 @@
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:AF8" xr:uid="{A0D8BC6F-F653-4F8F-B96E-D91D7F594A13}"/>
   <mergeCells count="4">
     <mergeCell ref="A7:U7"/>
-    <mergeCell ref="V7:AG7"/>
-    <mergeCell ref="A4:AG4"/>
-    <mergeCell ref="A3:AG3"/>
+    <mergeCell ref="V7:AH7"/>
+    <mergeCell ref="A4:AH4"/>
+    <mergeCell ref="A3:AH3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/public/Plantillas/Reporte-MatrizVinculacion.xlsx
+++ b/public/Plantillas/Reporte-MatrizVinculacion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC9FA17-21DE-484B-991C-55FAD05FC791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD748646-3EA7-4E9D-AEF7-6AFA734B0742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA0A86E9-0812-4831-9BB8-61CEB0D52C2A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>ESPE ID</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>ESTADO</t>
+  </si>
+  <si>
+    <t>ESTADO PROCESO</t>
   </si>
 </sst>
 </file>
@@ -610,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D8BC6F-F653-4F8F-B96E-D91D7F594A13}">
-  <dimension ref="A3:AH9"/>
+  <dimension ref="A3:AI9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG17" sqref="AG17"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI19" sqref="AI19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,9 +645,10 @@
     <col min="30" max="30" width="20.21875" customWidth="1"/>
     <col min="33" max="33" width="22.109375" customWidth="1"/>
     <col min="34" max="34" width="25.33203125" customWidth="1"/>
+    <col min="35" max="35" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:34" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
@@ -682,7 +686,7 @@
       <c r="AG3" s="8"/>
       <c r="AH3" s="8"/>
     </row>
-    <row r="4" spans="1:34" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
@@ -720,7 +724,7 @@
       <c r="AG4" s="8"/>
       <c r="AH4" s="8"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -759,8 +763,9 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
       <c r="AH7" s="6"/>
+      <c r="AI7" s="5"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
@@ -861,10 +866,13 @@
         <v>22</v>
       </c>
       <c r="AH8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI8" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -899,6 +907,7 @@
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:AF8" xr:uid="{A0D8BC6F-F653-4F8F-B96E-D91D7F594A13}"/>

--- a/public/Plantillas/Reporte-MatrizVinculacion.xlsx
+++ b/public/Plantillas/Reporte-MatrizVinculacion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tesis_version\tesis2\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD748646-3EA7-4E9D-AEF7-6AFA734B0742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED313D0-ABBD-4F96-94EB-7DE4BE389248}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA0A86E9-0812-4831-9BB8-61CEB0D52C2A}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{BA0A86E9-0812-4831-9BB8-61CEB0D52C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -129,10 +120,10 @@
     <t>CARRERA DE TECNOLOGÍAS DE LA INFORMACIÓN</t>
   </si>
   <si>
-    <t>ESTADO</t>
-  </si>
-  <si>
     <t>ESTADO PROCESO</t>
+  </si>
+  <si>
+    <t>ESTADO DEL ESTUDIANTE</t>
   </si>
 </sst>
 </file>
@@ -274,20 +265,25 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>2150409</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>103877</xdr:rowOff>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1428750" cy="476250"/>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>2288529</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>67389</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB0551AD-F7BC-4342-81DD-54BA55DA9A62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB3C4F01-591B-4F22-9878-84E66D588C7A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -296,15 +292,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23396762" y="283171"/>
-          <a:ext cx="1428750" cy="476250"/>
+          <a:off x="23599588" y="313765"/>
+          <a:ext cx="2042000" cy="605271"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -312,7 +314,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -615,40 +617,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D8BC6F-F653-4F8F-B96E-D91D7F594A13}">
   <dimension ref="A3:AI9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI19" sqref="AI19"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1"/>
-    <col min="7" max="10" width="21.77734375" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" customWidth="1"/>
+    <col min="3" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="14" width="37.5546875" customWidth="1"/>
-    <col min="15" max="15" width="40.44140625" customWidth="1"/>
-    <col min="16" max="17" width="36.6640625" customWidth="1"/>
-    <col min="18" max="18" width="32.33203125" customWidth="1"/>
-    <col min="19" max="19" width="40.5546875" customWidth="1"/>
-    <col min="20" max="20" width="18.44140625" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" customWidth="1"/>
-    <col min="22" max="22" width="31.21875" customWidth="1"/>
-    <col min="23" max="24" width="29.33203125" customWidth="1"/>
-    <col min="25" max="26" width="33.5546875" customWidth="1"/>
-    <col min="27" max="27" width="23.33203125" customWidth="1"/>
-    <col min="28" max="28" width="36.88671875" customWidth="1"/>
-    <col min="29" max="29" width="18.21875" customWidth="1"/>
-    <col min="30" max="30" width="20.21875" customWidth="1"/>
-    <col min="33" max="33" width="22.109375" customWidth="1"/>
-    <col min="34" max="34" width="25.33203125" customWidth="1"/>
-    <col min="35" max="35" width="18.109375" customWidth="1"/>
+    <col min="13" max="14" width="37.5703125" customWidth="1"/>
+    <col min="15" max="15" width="40.42578125" customWidth="1"/>
+    <col min="16" max="17" width="36.7109375" customWidth="1"/>
+    <col min="18" max="18" width="32.28515625" customWidth="1"/>
+    <col min="19" max="19" width="40.5703125" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" customWidth="1"/>
+    <col min="22" max="22" width="31.28515625" customWidth="1"/>
+    <col min="23" max="24" width="29.28515625" customWidth="1"/>
+    <col min="25" max="26" width="33.5703125" customWidth="1"/>
+    <col min="27" max="27" width="23.28515625" customWidth="1"/>
+    <col min="28" max="28" width="36.85546875" customWidth="1"/>
+    <col min="29" max="29" width="18.28515625" customWidth="1"/>
+    <col min="30" max="30" width="20.28515625" customWidth="1"/>
+    <col min="33" max="33" width="22.140625" customWidth="1"/>
+    <col min="34" max="34" width="25.28515625" customWidth="1"/>
+    <col min="35" max="35" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:35" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
@@ -686,7 +688,7 @@
       <c r="AG3" s="8"/>
       <c r="AH3" s="8"/>
     </row>
-    <row r="4" spans="1:35" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
@@ -724,7 +726,7 @@
       <c r="AG4" s="8"/>
       <c r="AH4" s="8"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
@@ -765,7 +767,7 @@
       <c r="AH7" s="6"/>
       <c r="AI7" s="5"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
@@ -866,13 +868,13 @@
         <v>22</v>
       </c>
       <c r="AH8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AI8" s="5" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
